--- a/biology/Botanique/Eugenia_hastilis/Eugenia_hastilis.xlsx
+++ b/biology/Botanique/Eugenia_hastilis/Eugenia_hastilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boie de sagaie
 Eugenia hastilis est une espèce de plante de la famille des Myrtaceae. Elle est endémique de l'île Maurice, où elle est appelée bois de sagaie. Son environnement naturel se trouve dans les forêts tropicales. Il n'existe plus qu'une quinzaine d'individus autour de la Montagne des Chats et de la plaine des Roches.
